--- a/examtopics.xlsx
+++ b/examtopics.xlsx
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +490,7 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,6 +937,7 @@
       <c r="B58" t="s">
         <v>7</v>
       </c>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">

--- a/examtopics.xlsx
+++ b/examtopics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>fault count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -139,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,9 +192,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,7 +936,7 @@
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
@@ -1092,25 +1091,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1121,33 +1120,36 @@
       <c r="C84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -1158,14 +1160,17 @@
       <c r="C89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -1174,19 +1179,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -1194,14 +1199,17 @@
       <c r="B94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -1391,7 +1399,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>

--- a/examtopics.xlsx
+++ b/examtopics.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shinya\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsys154\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8A5D02-1619-4891-AFC3-0D57EC420A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="13275" yWindow="1110" windowWidth="12090" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="examtopic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">examtopic!$A$1:$E$122</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -121,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1345,6 +1357,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115">
@@ -1371,6 +1386,9 @@
       </c>
       <c r="C118" t="s">
         <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -1399,7 +1417,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
@@ -1418,8 +1436,17 @@
         <f>C121/119</f>
         <v>0.13445378151260504</v>
       </c>
+      <c r="D122" s="3">
+        <f t="shared" ref="D122:E122" si="3">D121/119</f>
+        <v>6.7226890756302518E-2</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E122" xr:uid="{40FF307D-822E-4FA7-BB64-D2F100E4FAD5}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
